--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T11:38:34+00:00</t>
+    <t>2022-08-31T09:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:33:23+00:00</t>
+    <t>2022-08-31T09:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:56:11+00:00</t>
+    <t>2022-08-31T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:36:06+00:00</t>
+    <t>2022-08-31T12:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:42:43+00:00</t>
+    <t>2022-08-31T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:41:46+00:00</t>
+    <t>2022-08-31T20:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:08:39+00:00</t>
+    <t>2022-08-31T20:28:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:28:40+00:00</t>
+    <t>2022-08-31T20:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:44:20+00:00</t>
+    <t>2022-08-31T20:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:56:30+00:00</t>
+    <t>2022-09-03T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T19:58:19+00:00</t>
+    <t>2022-09-03T20:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T20:14:05+00:00</t>
+    <t>2022-09-03T21:16:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -771,8 +771,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -787,6 +787,13 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -797,6 +804,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -855,8 +865,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -869,13 +879,6 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -892,9 +895,6 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>valueDateTime</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1383,10 +1383,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1750,7 +1746,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4107,16 +4103,14 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>240</v>
@@ -4134,31 +4128,33 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4168,7 +4164,7 @@
         <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4177,18 +4173,20 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4236,7 +4234,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4251,19 +4249,19 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4271,7 +4269,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4282,7 +4280,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -4294,18 +4292,18 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4353,13 +4351,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4368,19 +4366,19 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4388,7 +4386,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4399,7 +4397,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4411,19 +4409,17 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4460,56 +4456,56 @@
         <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4521,7 +4517,7 @@
         <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4530,19 +4526,19 @@
         <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4591,7 +4587,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4600,7 +4596,7 @@
         <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4609,19 +4605,19 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -7469,19 +7465,19 @@
         <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7548,24 +7544,24 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7591,13 +7587,13 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>286</v>
@@ -7649,7 +7645,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7684,7 +7680,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7768,7 +7764,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7803,7 +7799,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7829,10 +7825,10 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>353</v>
@@ -7887,7 +7883,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:16:47+00:00</t>
+    <t>2022-09-03T21:25:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:25:02+00:00</t>
+    <t>2022-09-04T09:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T09:55:59+00:00</t>
+    <t>2022-09-04T13:23:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:23:45+00:00</t>
+    <t>2022-09-04T13:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:33:44+00:00</t>
+    <t>2022-09-04T13:49:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:49:49+00:00</t>
+    <t>2022-09-04T14:40:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T14:40:23+00:00</t>
+    <t>2022-09-04T15:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:15:31+00:00</t>
+    <t>2022-09-04T15:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:19:44+00:00</t>
+    <t>2022-09-04T16:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:44:58+00:00</t>
+    <t>2022-09-04T16:52:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:52:24+00:00</t>
+    <t>2022-09-04T17:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T17:03:18+00:00</t>
+    <t>2022-09-04T18:26:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T18:26:39+00:00</t>
+    <t>2022-09-05T12:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:17:02+00:00</t>
+    <t>2022-09-05T12:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:37:44+00:00</t>
+    <t>2022-09-05T15:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:36:05+00:00</t>
+    <t>2022-09-05T19:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T19:43:49+00:00</t>
+    <t>2022-09-05T20:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:02:35+00:00</t>
+    <t>2022-09-05T20:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:38:58+00:00</t>
+    <t>2022-09-05T20:52:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-date-last-hospitalized.xlsx
+++ b/StructureDefinition-covid19-date-last-hospitalized.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:52:48+00:00</t>
+    <t>2022-09-06T09:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
